--- a/biology/Botanique/Jungh/Jungh..xlsx
+++ b/biology/Botanique/Jungh/Jungh..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Franz Wilhelm Junghuhn est un botaniste néerlandais, né le 26 octobre 1809 à Mansfeld et mort le 24 avril 1864 à Lembang.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Halle et à Berlin. Il officie comme chirurgien dans l’armée prussienne puis comme médecin dans l’armée française en Algérie.
-Il s'installe à Java et y demeure le reste de sa vie à l’exception d’un passage en Hollande de 1849 à 1855. De 1835 à 1849, il établit une carte précise de Java[1]. Il fait paraître Topographische und naturwissenschaftliche Reisen durch Java [1845], Java, seine Gestalt, Pflanzendecke, und sein innerer Bau (quatre volumes, 1850-1854), Die Bättalander auf Sumatra (1847). Il étudie la géologie, la géographie et la botanique de Java.
+Il s'installe à Java et y demeure le reste de sa vie à l’exception d’un passage en Hollande de 1849 à 1855. De 1835 à 1849, il établit une carte précise de Java. Il fait paraître Topographische und naturwissenschaftliche Reisen durch Java , Java, seine Gestalt, Pflanzendecke, und sein innerer Bau (quatre volumes, 1850-1854), Die Bättalander auf Sumatra (1847). Il étudie la géologie, la géographie et la botanique de Java.
 </t>
         </is>
       </c>
